--- a/PriorCalculations.xlsx
+++ b/PriorCalculations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amikk\Documents\Rprojects\Diet-sensitivty-to-TDFs-and-priors\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{13079B8D-D455-4D25-BAF7-73160FB04FF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D8983E2-5E0E-4475-B09E-C961C302EC37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{F4154798-B816-4127-94ED-9A8A844F6623}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="22">
   <si>
     <t>Citation</t>
   </si>
@@ -60,9 +60,6 @@
     <t>EDEC</t>
   </si>
   <si>
-    <t>Averages</t>
-  </si>
-  <si>
     <t>SD</t>
   </si>
   <si>
@@ -97,6 +94,12 @@
   </si>
   <si>
     <t>Frank.2019</t>
+  </si>
+  <si>
+    <t>AverageProportion</t>
+  </si>
+  <si>
+    <t>Priors</t>
   </si>
 </sst>
 </file>
@@ -452,10 +455,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FF0E24D-28D0-47C8-B224-36F786BD6E70}">
-  <dimension ref="A1:M30"/>
+  <dimension ref="A1:N30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -466,14 +469,15 @@
     <col min="5" max="5" width="14.140625" customWidth="1"/>
     <col min="6" max="6" width="13.7109375" customWidth="1"/>
     <col min="9" max="9" width="12.85546875" customWidth="1"/>
+    <col min="10" max="10" width="20.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -484,10 +488,10 @@
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D2" t="s">
         <v>2</v>
       </c>
@@ -498,21 +502,24 @@
         <v>4</v>
       </c>
       <c r="J2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" t="s">
         <v>8</v>
       </c>
-      <c r="K2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
       </c>
       <c r="I3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J3" s="1">
         <f>AVERAGE(G4,G12,G19,G26)</f>
@@ -530,10 +537,14 @@
         <f>K3/100</f>
         <v>0.10979387252686031</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N3" s="1">
+        <f>L3+0.02</f>
+        <v>0.20458333333333331</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D4">
         <f>13</f>
@@ -570,8 +581,12 @@
         <f t="shared" ref="M4:M7" si="2">K4/100</f>
         <v>0.10183851596195488</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N4" s="1">
+        <f>L4+0.03</f>
+        <v>0.18875</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>6</v>
       </c>
@@ -583,7 +598,7 @@
         <v>22</v>
       </c>
       <c r="I5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J5" s="1">
         <f>AVERAGE(G6,G14,G21,G28)</f>
@@ -601,10 +616,14 @@
         <f t="shared" si="2"/>
         <v>5.7847240562888896E-2</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N5" s="1">
+        <f t="shared" ref="N4:N7" si="3">L5+0.02</f>
+        <v>0.15662499999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D6">
         <v>2</v>
@@ -620,7 +639,7 @@
         <v>20.333333333333332</v>
       </c>
       <c r="I6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J6" s="1">
         <f>AVERAGE(G7,G15,G22,G29)</f>
@@ -638,10 +657,14 @@
         <f t="shared" si="2"/>
         <v>0.11208148490834362</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N6" s="1">
+        <f t="shared" si="3"/>
+        <v>9.0166666666666673E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -657,7 +680,7 @@
         <v>1</v>
       </c>
       <c r="I7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J7" s="1">
         <f>AVERAGE(G8,G16,G23,G30)</f>
@@ -675,10 +698,14 @@
         <f t="shared" si="2"/>
         <v>0.16141431478812071</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N7" s="1">
+        <f t="shared" si="3"/>
+        <v>0.356875</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D8">
         <v>80</v>
@@ -697,7 +724,7 @@
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="J9" s="1">
         <f>SUM(J3:J7)</f>
         <v>88.699999999999989</v>
@@ -706,19 +733,23 @@
         <f>SUM(L3:L7)</f>
         <v>0.88700000000000001</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N9" s="1">
+        <f>SUM(N3:N7)</f>
+        <v>0.99700000000000011</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B10" t="s">
         <v>7</v>
       </c>
       <c r="J10" s="1"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D12">
         <f>20.2</f>
@@ -737,7 +768,7 @@
         <v>19.833333333333332</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>6</v>
       </c>
@@ -755,9 +786,9 @@
         <v>13.65</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D14">
         <f>6</f>
@@ -775,9 +806,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D15">
         <v>2.2999999999999998</v>
@@ -793,9 +824,9 @@
         <v>3.3333333333333335</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D16">
         <v>60.8</v>
@@ -813,7 +844,7 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B18" t="s">
         <v>7</v>
@@ -821,7 +852,7 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D19" s="1">
         <f>2.1</f>
@@ -860,7 +891,7 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D21">
         <v>6.1</v>
@@ -880,7 +911,7 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D22">
         <v>0</v>
@@ -898,7 +929,7 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D23">
         <v>61.5</v>
@@ -916,7 +947,7 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B25" t="s">
         <v>7</v>
@@ -924,7 +955,7 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D26">
         <v>35.700000000000003</v>
@@ -954,7 +985,7 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D28">
         <v>11.9</v>
@@ -969,7 +1000,7 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D29">
         <v>43.1</v>
@@ -984,7 +1015,7 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D30">
         <v>18</v>

--- a/PriorCalculations.xlsx
+++ b/PriorCalculations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amikk\Documents\Rprojects\Diet-sensitivty-to-TDFs-and-priors\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D8983E2-5E0E-4475-B09E-C961C302EC37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37418054-E3B8-491F-9A60-8A7A9ABD873F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{F4154798-B816-4127-94ED-9A8A844F6623}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="23">
   <si>
     <t>Citation</t>
   </si>
@@ -93,13 +93,16 @@
     <t>Persson.2001</t>
   </si>
   <si>
-    <t>Frank.2019</t>
-  </si>
-  <si>
     <t>AverageProportion</t>
   </si>
   <si>
     <t>Priors</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Posterior estimates </t>
+  </si>
+  <si>
+    <t>Franke.2019</t>
   </si>
 </sst>
 </file>
@@ -455,10 +458,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FF0E24D-28D0-47C8-B224-36F786BD6E70}">
-  <dimension ref="A1:N30"/>
+  <dimension ref="A1:O31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+      <selection activeCell="O3" sqref="O3:O7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -470,9 +473,10 @@
     <col min="6" max="6" width="13.7109375" customWidth="1"/>
     <col min="9" max="9" width="12.85546875" customWidth="1"/>
     <col min="10" max="10" width="20.5703125" customWidth="1"/>
+    <col min="15" max="15" width="19.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -491,7 +495,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D2" t="s">
         <v>2</v>
       </c>
@@ -502,16 +506,19 @@
         <v>4</v>
       </c>
       <c r="J2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K2" t="s">
         <v>8</v>
       </c>
       <c r="N2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -541,8 +548,11 @@
         <f>L3+0.02</f>
         <v>0.20458333333333331</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O3" s="1">
+        <v>6.5000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>9</v>
       </c>
@@ -585,8 +595,11 @@
         <f>L4+0.03</f>
         <v>0.18875</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O4" s="1">
+        <v>0.47299999999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>6</v>
       </c>
@@ -617,11 +630,14 @@
         <v>5.7847240562888896E-2</v>
       </c>
       <c r="N5" s="1">
-        <f t="shared" ref="N4:N7" si="3">L5+0.02</f>
+        <f t="shared" ref="N5:N7" si="3">L5+0.02</f>
         <v>0.15662499999999999</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O5" s="1">
+        <v>0.13500000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>12</v>
       </c>
@@ -661,8 +677,11 @@
         <f t="shared" si="3"/>
         <v>9.0166666666666673E-2</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O6" s="1">
+        <v>0.28799999999999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>11</v>
       </c>
@@ -702,8 +721,11 @@
         <f t="shared" si="3"/>
         <v>0.356875</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O7" s="1">
+        <v>3.7999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>10</v>
       </c>
@@ -724,7 +746,7 @@
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J9" s="1">
         <f>SUM(J3:J7)</f>
         <v>88.699999999999989</v>
@@ -738,7 +760,7 @@
         <v>0.99700000000000011</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -747,7 +769,7 @@
       </c>
       <c r="J10" s="1"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>9</v>
       </c>
@@ -767,8 +789,12 @@
         <f>SUM(D12:F12)/3</f>
         <v>19.833333333333332</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="H12">
+        <f>G12/100</f>
+        <v>0.19833333333333333</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>6</v>
       </c>
@@ -785,8 +811,12 @@
         <f>SUM(D13:F13)/3</f>
         <v>13.65</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="H13">
+        <f t="shared" ref="H13:H31" si="4">G13/100</f>
+        <v>0.13650000000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>12</v>
       </c>
@@ -805,8 +835,12 @@
         <f>SUM(D14:F14)/3</f>
         <v>9</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="H14">
+        <f t="shared" si="4"/>
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>11</v>
       </c>
@@ -823,8 +857,12 @@
         <f>SUM(D15:F15)/3</f>
         <v>3.3333333333333335</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="H15">
+        <f t="shared" si="4"/>
+        <v>3.3333333333333333E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>10</v>
       </c>
@@ -841,16 +879,30 @@
         <f>SUM(D16:F16)/3</f>
         <v>45.633333333333333</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H16">
+        <f t="shared" si="4"/>
+        <v>0.45633333333333331</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H17">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>18</v>
       </c>
       <c r="B18" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H18">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>9</v>
       </c>
@@ -870,8 +922,12 @@
         <f>SUM(D19:F19)/3</f>
         <v>4.6000000000000005</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H19">
+        <f t="shared" si="4"/>
+        <v>4.6000000000000006E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>6</v>
       </c>
@@ -888,8 +944,12 @@
         <f>SUM(D20:F20)/3</f>
         <v>2.5</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H20">
+        <f t="shared" si="4"/>
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>12</v>
       </c>
@@ -908,8 +968,12 @@
         <f>SUM(D21:F21)/3</f>
         <v>16.666666666666668</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H21">
+        <f t="shared" si="4"/>
+        <v>0.16666666666666669</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>11</v>
       </c>
@@ -926,8 +990,12 @@
         <f>SUM(D22:F22)/3</f>
         <v>3.3333333333333333E-2</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H22">
+        <f t="shared" si="4"/>
+        <v>3.3333333333333332E-4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>10</v>
       </c>
@@ -944,16 +1012,30 @@
         <f>SUM(D23:F23)/3</f>
         <v>39.6</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H23">
+        <f t="shared" si="4"/>
+        <v>0.39600000000000002</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H24">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B25" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H25">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>9</v>
       </c>
@@ -967,8 +1049,12 @@
         <f>SUM(D26:F26)/2</f>
         <v>31.400000000000002</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H26">
+        <f t="shared" si="4"/>
+        <v>0.314</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>6</v>
       </c>
@@ -982,8 +1068,12 @@
         <f>SUM(D27:F27)/2</f>
         <v>25.35</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H27">
+        <f t="shared" si="4"/>
+        <v>0.2535</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>12</v>
       </c>
@@ -997,8 +1087,12 @@
         <f>SUM(D28:F28)/2</f>
         <v>8.65</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H28">
+        <f t="shared" si="4"/>
+        <v>8.6500000000000007E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>11</v>
       </c>
@@ -1012,8 +1106,12 @@
         <f>SUM(D29:F29)/2</f>
         <v>23.7</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H29">
+        <f t="shared" si="4"/>
+        <v>0.23699999999999999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>10</v>
       </c>
@@ -1026,6 +1124,16 @@
       <c r="G30">
         <f>SUM(D30:F30)/2</f>
         <v>9.85</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="4"/>
+        <v>9.849999999999999E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H31">
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
